--- a/biology/Botanique/Angelica_razulii/Angelica_razulii.xlsx
+++ b/biology/Botanique/Angelica_razulii/Angelica_razulii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Angélique de Razouls Écouter (Angelica razulii Gouan, 1773) est une espèce végétale de la famille des apiacées. Elle est endémique du massif montagneux des Pyrénées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Angélique de Razouls Écouter (Angelica razulii Gouan, 1773) est une espèce végétale de la famille des apiacées. Elle est endémique du massif montagneux des Pyrénées.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Description d'Hippolyte Coste (1858 - 1924)[2],[3] : « Plante vivace de 50 cm à 1 mètre, à tige creuse, striée, rameuse ; feuilles inférieures grandes, bipennées, à folioles rapprochées, lancéolées-aiguës, décurrentes à la base, finement dentées en scie ; fleurs rosées ou blanches ; ombelles grandes, à 25-40 rayons cendrés-pubescents ; involucre à 1-5 folioles longuement linéaires, à la fin caduques ; pétales à pointe roulée en dedans ; fruit ovale-oblong, à peine échancré à la base, à ailes marginales membraneuses, aussi larges que le méricarpe. »
-Répartition : prairies et pâturages de presque toute la chaîne des Pyrénées. Espagne septentrionale[2],[3].
+Description d'Hippolyte Coste (1858 - 1924), : « Plante vivace de 50 cm à 1 mètre, à tige creuse, striée, rameuse ; feuilles inférieures grandes, bipennées, à folioles rapprochées, lancéolées-aiguës, décurrentes à la base, finement dentées en scie ; fleurs rosées ou blanches ; ombelles grandes, à 25-40 rayons cendrés-pubescents ; involucre à 1-5 folioles longuement linéaires, à la fin caduques ; pétales à pointe roulée en dedans ; fruit ovale-oblong, à peine échancré à la base, à ailes marginales membraneuses, aussi larges que le méricarpe. »
+Répartition : prairies et pâturages de presque toute la chaîne des Pyrénées. Espagne septentrionale,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : ombelle d'ombellules
